--- a/RunnedScenarios.xlsx
+++ b/RunnedScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -56,6 +56,45 @@
   </si>
   <si>
     <t>20230730_181845</t>
+  </si>
+  <si>
+    <t>20240327_120659</t>
+  </si>
+  <si>
+    <t>20240327_120706</t>
+  </si>
+  <si>
+    <t>20240327_120712</t>
+  </si>
+  <si>
+    <t>20240327_120718</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>20240328_220845</t>
+  </si>
+  <si>
+    <t>20240328_220852</t>
+  </si>
+  <si>
+    <t>20240328_221111</t>
+  </si>
+  <si>
+    <t>20240328_221118</t>
+  </si>
+  <si>
+    <t>20240328_221124</t>
+  </si>
+  <si>
+    <t>20240328_221130</t>
+  </si>
+  <si>
+    <t>20240328_222455</t>
+  </si>
+  <si>
+    <t>20240328_222516</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1040,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -1092,6 +1131,186 @@
       </c>
       <c r="E5"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RunnedScenarios.xlsx
+++ b/RunnedScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -95,6 +95,96 @@
   </si>
   <si>
     <t>20240328_222516</t>
+  </si>
+  <si>
+    <t>20240401_034814</t>
+  </si>
+  <si>
+    <t>20240401_034822</t>
+  </si>
+  <si>
+    <t>Verify Contact Form Details</t>
+  </si>
+  <si>
+    <t>20240401_120408</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>20240401_120637</t>
+  </si>
+  <si>
+    <t>20240401_123405</t>
+  </si>
+  <si>
+    <t>20240401_123413</t>
+  </si>
+  <si>
+    <t>20240401_123419</t>
+  </si>
+  <si>
+    <t>20240401_123425</t>
+  </si>
+  <si>
+    <t>20240401_135352</t>
+  </si>
+  <si>
+    <t>20240401_135354</t>
+  </si>
+  <si>
+    <t>20240401_135400</t>
+  </si>
+  <si>
+    <t>20240401_135402</t>
+  </si>
+  <si>
+    <t>20240401_135406</t>
+  </si>
+  <si>
+    <t>20240401_135408</t>
+  </si>
+  <si>
+    <t>20240401_135413</t>
+  </si>
+  <si>
+    <t>20240401_135415</t>
+  </si>
+  <si>
+    <t>20240401_140030</t>
+  </si>
+  <si>
+    <t>20240401_140037</t>
+  </si>
+  <si>
+    <t>20240401_140044</t>
+  </si>
+  <si>
+    <t>20240401_140049</t>
+  </si>
+  <si>
+    <t>20240402_200903</t>
+  </si>
+  <si>
+    <t>20240402_200912</t>
+  </si>
+  <si>
+    <t>20240402_200919</t>
+  </si>
+  <si>
+    <t>20240402_200925</t>
+  </si>
+  <si>
+    <t>20240402_203148</t>
+  </si>
+  <si>
+    <t>20240402_203155</t>
+  </si>
+  <si>
+    <t>20240402_203201</t>
+  </si>
+  <si>
+    <t>20240402_203208</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1130,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -1311,6 +1401,430 @@
       </c>
       <c r="E17"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RunnedScenarios.xlsx
+++ b/RunnedScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -185,6 +185,108 @@
   </si>
   <si>
     <t>20240402_203208</t>
+  </si>
+  <si>
+    <t>20240402_210504</t>
+  </si>
+  <si>
+    <t>20240402_210512</t>
+  </si>
+  <si>
+    <t>20240402_210513</t>
+  </si>
+  <si>
+    <t>20240402_210518</t>
+  </si>
+  <si>
+    <t>20240402_210520</t>
+  </si>
+  <si>
+    <t>20240402_210524</t>
+  </si>
+  <si>
+    <t>20240402_210526</t>
+  </si>
+  <si>
+    <t>20240402_211114</t>
+  </si>
+  <si>
+    <t>20240402_211122</t>
+  </si>
+  <si>
+    <t>20240402_211128</t>
+  </si>
+  <si>
+    <t>20240402_211134</t>
+  </si>
+  <si>
+    <t>20240402_211517</t>
+  </si>
+  <si>
+    <t>20240402_211522</t>
+  </si>
+  <si>
+    <t>20240402_211527</t>
+  </si>
+  <si>
+    <t>20240402_211530</t>
+  </si>
+  <si>
+    <t>20240402_211533</t>
+  </si>
+  <si>
+    <t>20240402_211536</t>
+  </si>
+  <si>
+    <t>20240402_211539</t>
+  </si>
+  <si>
+    <t>20240402_211713</t>
+  </si>
+  <si>
+    <t>20240402_211714</t>
+  </si>
+  <si>
+    <t>Verify successful form submission when optional fields are omitted</t>
+  </si>
+  <si>
+    <t>20240402_211800</t>
+  </si>
+  <si>
+    <t>Verify successful form submission when optional fields are filled</t>
+  </si>
+  <si>
+    <t>20240402_211842</t>
+  </si>
+  <si>
+    <t>20240402_211844</t>
+  </si>
+  <si>
+    <t>Verify all validation error messages under necessary fields when necessary fields are empty</t>
+  </si>
+  <si>
+    <t>20240402_211916</t>
+  </si>
+  <si>
+    <t>20240402_211919</t>
+  </si>
+  <si>
+    <t>Verify validation error message when invalid email address entered</t>
+  </si>
+  <si>
+    <t>20240402_211948</t>
+  </si>
+  <si>
+    <t>20240402_211949</t>
+  </si>
+  <si>
+    <t>Verify cancellation of form submission</t>
+  </si>
+  <si>
+    <t>20240402_212038</t>
+  </si>
+  <si>
+    <t>20240402_212044</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1232,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -1825,6 +1927,480 @@
       </c>
       <c r="E45"/>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RunnedScenarios.xlsx
+++ b/RunnedScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -287,6 +287,75 @@
   </si>
   <si>
     <t>20240402_212044</t>
+  </si>
+  <si>
+    <t>20240402_213800</t>
+  </si>
+  <si>
+    <t>20240402_213806</t>
+  </si>
+  <si>
+    <t>20240402_213808</t>
+  </si>
+  <si>
+    <t>20240402_213812</t>
+  </si>
+  <si>
+    <t>20240402_213814</t>
+  </si>
+  <si>
+    <t>20240402_213818</t>
+  </si>
+  <si>
+    <t>20240402_213820</t>
+  </si>
+  <si>
+    <t>20240402_213922</t>
+  </si>
+  <si>
+    <t>20240402_213928</t>
+  </si>
+  <si>
+    <t>20240402_214004</t>
+  </si>
+  <si>
+    <t>20240402_214027</t>
+  </si>
+  <si>
+    <t>20240402_214034</t>
+  </si>
+  <si>
+    <t>20240402_214128</t>
+  </si>
+  <si>
+    <t>20240402_214254</t>
+  </si>
+  <si>
+    <t>20240402_214337</t>
+  </si>
+  <si>
+    <t>20240402_214534</t>
+  </si>
+  <si>
+    <t>20240402_214619</t>
+  </si>
+  <si>
+    <t>20240402_214654</t>
+  </si>
+  <si>
+    <t>20240402_214724</t>
+  </si>
+  <si>
+    <t>20240402_220324</t>
+  </si>
+  <si>
+    <t>20240402_220331</t>
+  </si>
+  <si>
+    <t>20240402_220337</t>
+  </si>
+  <si>
+    <t>20240402_220344</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1301,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -2401,6 +2470,375 @@
         <v>31</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
